--- a/TestData/TMTT0038098_VerifyTheFunctionalityOfPortfolioValuationOnOpportunityDetailPage.xlsx
+++ b/TestData/TMTT0038098_VerifyTheFunctionalityOfPortfolioValuationOnOpportunityDetailPage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SGoyal0427\source\repos\SF_Automation\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15F031F0-5A9C-49C5-98D8-8E632CDE2A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88477A11-DBEE-400E-80EF-DA8C45ACC0DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,7 +312,7 @@
     <t>Dental</t>
   </si>
   <si>
-    <t>Liz Hedgcock</t>
+    <t>Danielle Morello</t>
   </si>
 </sst>
 </file>
@@ -890,7 +890,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
